--- a/pafhrms/FORMAT 2024.xlsx
+++ b/pafhrms/FORMAT 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="272">
   <si>
     <t xml:space="preserve">NR</t>
   </si>
@@ -130,105 +130,102 @@
     <t xml:space="preserve">BAFOC</t>
   </si>
   <si>
-    <t xml:space="preserve">31- Dec-20</t>
-  </si>
-  <si>
     <t xml:space="preserve">31-Dec-20</t>
   </si>
   <si>
     <t xml:space="preserve">2 Years, 08 Mos &amp; 16 Days</t>
   </si>
   <si>
+    <t xml:space="preserve">HPAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OAFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABALLERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JESSEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BILLONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O-154691 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laspiñas City </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-Nov-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 Years,  08 Mos &amp; 02 Days </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAFHRMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2LT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONATO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIKKO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O-22139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lipa City </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Yr, 09 Mos &amp; 17 Days </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5FW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7TFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AW1C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAYETANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TARA ANNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABOTABO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lapu-Lapu City, Cebu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">73230 </t>
+  </si>
+  <si>
     <t xml:space="preserve">-</t>
   </si>
   <si>
-    <t xml:space="preserve">HPAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OAFA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABALLERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JESSEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BILLONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O-154691 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laspiñas City </t>
-  </si>
-  <si>
-    <t xml:space="preserve">28-Nov-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 Years,  08 Mos &amp; 02 Days </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAFHRMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2LT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONATO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIKKO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEREZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O-22139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MALE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lipa City </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regular </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Yr, 09 Mos &amp; 17 Days </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5FW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7TFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AW1C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAYETANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TARA ANNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TABOTABO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lapu-Lapu City, Cebu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">73230 </t>
-  </si>
-  <si>
     <t xml:space="preserve">08 Yrs  &amp; 10 Days</t>
   </si>
   <si>
@@ -548,9 +545,6 @@
   </si>
   <si>
     <t xml:space="preserve">DUMANDAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-Nov-92</t>
   </si>
   <si>
     <t xml:space="preserve">Baler Aurora</t>
@@ -1193,11 +1187,11 @@
   </sheetPr>
   <dimension ref="A1:X147"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R10" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T53" activeCellId="3" sqref="T44:T45 T47 T50 T46:T53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.14"/>
@@ -1370,23 +1364,21 @@
       <c r="P3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="11" t="n">
+        <v>44196</v>
+      </c>
+      <c r="R3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="S3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="0"/>
+      <c r="U3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="V3" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>41</v>
       </c>
       <c r="W3" s="15"/>
       <c r="X3" s="15"/>
@@ -1399,20 +1391,20 @@
         <v>25</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>42</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>31</v>
@@ -1422,7 +1414,7 @@
       </c>
       <c r="K4" s="24"/>
       <c r="L4" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M4" s="24" t="s">
         <v>33</v>
@@ -1438,16 +1430,16 @@
         <v>44406</v>
       </c>
       <c r="R4" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S4" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="T4" s="23" t="n">
         <v>44406</v>
       </c>
       <c r="U4" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V4" s="27"/>
       <c r="W4" s="27"/>
@@ -1458,38 +1450,38 @@
         <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>54</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J5" s="23" t="n">
         <v>35502</v>
       </c>
       <c r="K5" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="24" t="s">
         <v>57</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>59</v>
       </c>
       <c r="N5" s="25" t="s">
         <v>34</v>
@@ -1505,16 +1497,13 @@
         <v>44559</v>
       </c>
       <c r="S5" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5" s="27" t="s">
         <v>60</v>
-      </c>
-      <c r="T5" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="U5" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="V5" s="27" t="s">
-        <v>62</v>
       </c>
       <c r="W5" s="27"/>
       <c r="X5" s="27"/>
@@ -1524,16 +1513,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="28" t="n">
@@ -1550,15 +1539,15 @@
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
       <c r="O6" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P6" s="30" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q6" s="25" t="n">
         <v>42412</v>
@@ -1567,16 +1556,16 @@
         <v>42269</v>
       </c>
       <c r="S6" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T6" s="25" t="n">
         <v>43873</v>
       </c>
       <c r="U6" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="V6" s="17" t="s">
         <v>70</v>
-      </c>
-      <c r="V6" s="17" t="s">
-        <v>71</v>
       </c>
       <c r="W6" s="17"/>
       <c r="X6" s="17"/>
@@ -1586,16 +1575,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="D7" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="28" t="n">
@@ -1605,22 +1594,22 @@
         <v>30</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J7" s="25" t="n">
         <v>35082</v>
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
       <c r="O7" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P7" s="30" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q7" s="25" t="n">
         <v>42412</v>
@@ -1629,13 +1618,13 @@
         <v>42269</v>
       </c>
       <c r="S7" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T7" s="25" t="n">
         <v>43873</v>
       </c>
       <c r="U7" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V7" s="17"/>
       <c r="W7" s="17"/>
@@ -1646,16 +1635,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>79</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>80</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="28" t="n">
@@ -1672,15 +1661,15 @@
       </c>
       <c r="K8" s="17"/>
       <c r="L8" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
       <c r="O8" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q8" s="25" t="n">
         <v>42412</v>
@@ -1689,13 +1678,13 @@
         <v>42269</v>
       </c>
       <c r="S8" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T8" s="25" t="n">
         <v>43873</v>
       </c>
       <c r="U8" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
@@ -1706,16 +1695,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="E9" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>85</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="34" t="n">
@@ -1732,15 +1721,15 @@
       </c>
       <c r="K9" s="17"/>
       <c r="L9" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
       <c r="O9" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q9" s="36" t="n">
         <v>42699</v>
@@ -1749,13 +1738,13 @@
         <v>42699</v>
       </c>
       <c r="S9" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T9" s="36" t="n">
         <v>43863</v>
       </c>
       <c r="U9" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V9" s="17"/>
       <c r="W9" s="17"/>
@@ -1766,41 +1755,41 @@
         <v>8</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="D10" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="E10" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>92</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="34" t="n">
         <v>923190</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J10" s="36" t="n">
         <v>34670</v>
       </c>
       <c r="K10" s="17"/>
       <c r="L10" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
       <c r="O10" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="36" t="n">
         <v>42819</v>
@@ -1809,13 +1798,13 @@
         <v>42923</v>
       </c>
       <c r="S10" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T10" s="36" t="n">
         <v>44531</v>
       </c>
       <c r="U10" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V10" s="17"/>
       <c r="W10" s="17"/>
@@ -1826,16 +1815,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="28" t="n">
@@ -1845,22 +1834,22 @@
         <v>30</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J11" s="25" t="n">
         <v>35382</v>
       </c>
       <c r="K11" s="17"/>
       <c r="L11" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
       <c r="O11" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="25" t="n">
         <v>42776</v>
@@ -1869,13 +1858,13 @@
         <v>42661</v>
       </c>
       <c r="S11" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T11" s="25" t="n">
         <v>44531</v>
       </c>
       <c r="U11" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V11" s="17"/>
       <c r="W11" s="17"/>
@@ -1886,16 +1875,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="38" t="n">
@@ -1912,15 +1901,15 @@
       </c>
       <c r="K12" s="17"/>
       <c r="L12" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="14" t="n">
         <v>42776</v>
@@ -1929,13 +1918,13 @@
         <v>42661</v>
       </c>
       <c r="S12" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T12" s="25" t="n">
         <v>44531</v>
       </c>
       <c r="U12" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V12" s="17"/>
       <c r="W12" s="17"/>
@@ -1946,16 +1935,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>106</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>107</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="28" t="n">
@@ -1972,15 +1961,15 @@
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
       <c r="O13" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P13" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="25" t="n">
         <v>42776</v>
@@ -1989,13 +1978,13 @@
         <v>42661</v>
       </c>
       <c r="S13" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T13" s="25" t="n">
         <v>44531</v>
       </c>
       <c r="U13" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
@@ -2006,16 +1995,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="E14" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="34" t="n">
@@ -2032,15 +2021,15 @@
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
       <c r="O14" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P14" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="36" t="n">
         <v>43070</v>
@@ -2049,13 +2038,13 @@
         <v>43070</v>
       </c>
       <c r="S14" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T14" s="36" t="n">
         <v>44531</v>
       </c>
       <c r="U14" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V14" s="17"/>
       <c r="W14" s="17"/>
@@ -2066,16 +2055,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>115</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="28" t="n">
@@ -2092,15 +2081,15 @@
       </c>
       <c r="K15" s="17"/>
       <c r="L15" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
       <c r="O15" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P15" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q15" s="36" t="n">
         <v>43070</v>
@@ -2109,13 +2098,13 @@
         <v>43070</v>
       </c>
       <c r="S15" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T15" s="36" t="n">
         <v>44531</v>
       </c>
       <c r="U15" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V15" s="17"/>
       <c r="W15" s="17"/>
@@ -2126,23 +2115,23 @@
         <v>14</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>118</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>119</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="28" t="n">
         <v>934129</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I16" s="22" t="s">
         <v>31</v>
@@ -2152,15 +2141,15 @@
       </c>
       <c r="K16" s="17"/>
       <c r="L16" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
       <c r="O16" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P16" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="23" t="n">
         <v>42954</v>
@@ -2169,13 +2158,13 @@
         <v>43063</v>
       </c>
       <c r="S16" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T16" s="36" t="n">
         <v>44896</v>
       </c>
       <c r="U16" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V16" s="17"/>
       <c r="W16" s="17"/>
@@ -2186,23 +2175,23 @@
         <v>15</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>122</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>123</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="28" t="n">
         <v>933827</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I17" s="22" t="s">
         <v>31</v>
@@ -2212,15 +2201,15 @@
       </c>
       <c r="K17" s="17"/>
       <c r="L17" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
       <c r="O17" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P17" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="25" t="n">
         <v>42776</v>
@@ -2229,13 +2218,13 @@
         <v>42661</v>
       </c>
       <c r="S17" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T17" s="36" t="n">
         <v>44896</v>
       </c>
       <c r="U17" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
@@ -2246,16 +2235,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="E18" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="34" t="n">
@@ -2265,22 +2254,22 @@
         <v>30</v>
       </c>
       <c r="I18" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J18" s="36" t="n">
         <v>34836</v>
       </c>
       <c r="K18" s="17"/>
       <c r="L18" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
       <c r="O18" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q18" s="36" t="n">
         <v>43063</v>
@@ -2289,13 +2278,13 @@
         <v>42948</v>
       </c>
       <c r="S18" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T18" s="36" t="n">
         <v>44896</v>
       </c>
       <c r="U18" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
@@ -2306,16 +2295,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="E19" s="39" t="s">
         <v>129</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>130</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="33" t="n">
@@ -2325,14 +2314,14 @@
         <v>30</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K19" s="17"/>
       <c r="L19" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
@@ -2340,22 +2329,22 @@
         <v>70230</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q19" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="R19" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="S19" s="24" t="s">
         <v>133</v>
-      </c>
-      <c r="R19" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="S19" s="24" t="s">
-        <v>134</v>
       </c>
       <c r="T19" s="36" t="n">
         <v>44896</v>
       </c>
       <c r="U19" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
@@ -2366,16 +2355,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="E20" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="41" t="n">
@@ -2385,22 +2374,22 @@
         <v>30</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J20" s="43" t="n">
         <v>30989</v>
       </c>
       <c r="K20" s="17"/>
       <c r="L20" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
       <c r="O20" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q20" s="43" t="n">
         <v>43070</v>
@@ -2409,13 +2398,13 @@
         <v>43070</v>
       </c>
       <c r="S20" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T20" s="36" t="n">
         <v>44896</v>
       </c>
       <c r="U20" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
@@ -2426,16 +2415,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="E21" s="18" t="s">
         <v>141</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>142</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="34" t="n">
@@ -2445,22 +2434,22 @@
         <v>30</v>
       </c>
       <c r="I21" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J21" s="23" t="n">
         <v>34804</v>
       </c>
       <c r="K21" s="17"/>
       <c r="L21" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
       <c r="O21" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q21" s="36" t="n">
         <v>43070</v>
@@ -2469,13 +2458,13 @@
         <v>43070</v>
       </c>
       <c r="S21" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T21" s="36" t="n">
         <v>44896</v>
       </c>
       <c r="U21" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
@@ -2486,16 +2475,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="E22" s="18" t="s">
         <v>144</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>145</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="34" t="n">
@@ -2505,22 +2494,22 @@
         <v>30</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J22" s="36" t="n">
         <v>35343</v>
       </c>
       <c r="K22" s="17"/>
       <c r="L22" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
       <c r="O22" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q22" s="36" t="n">
         <v>43221</v>
@@ -2529,13 +2518,13 @@
         <v>43221</v>
       </c>
       <c r="S22" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T22" s="36" t="n">
         <v>44896</v>
       </c>
       <c r="U22" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V22" s="17"/>
       <c r="W22" s="17"/>
@@ -2546,16 +2535,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C23" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="38" t="n">
@@ -2572,15 +2561,15 @@
       </c>
       <c r="K23" s="17"/>
       <c r="L23" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
       <c r="O23" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q23" s="14" t="n">
         <v>43221</v>
@@ -2589,13 +2578,13 @@
         <v>43221</v>
       </c>
       <c r="S23" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T23" s="36" t="n">
         <v>44896</v>
       </c>
       <c r="U23" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V23" s="17"/>
       <c r="W23" s="17"/>
@@ -2606,16 +2595,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>152</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>153</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="28" t="n">
@@ -2632,15 +2621,15 @@
       </c>
       <c r="K24" s="17"/>
       <c r="L24" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
       <c r="O24" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P24" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q24" s="25" t="n">
         <v>43221</v>
@@ -2649,13 +2638,13 @@
         <v>43221</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T24" s="36" t="n">
         <v>44896</v>
       </c>
       <c r="U24" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V24" s="17"/>
       <c r="W24" s="17"/>
@@ -2666,23 +2655,23 @@
         <v>23</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>156</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="28" t="n">
         <v>943944</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I25" s="22" t="s">
         <v>31</v>
@@ -2692,15 +2681,15 @@
       </c>
       <c r="K25" s="17"/>
       <c r="L25" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
       <c r="O25" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P25" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q25" s="14" t="n">
         <v>43221</v>
@@ -2709,13 +2698,13 @@
         <v>43221</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T25" s="36" t="n">
         <v>44896</v>
       </c>
       <c r="U25" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V25" s="17"/>
       <c r="W25" s="17"/>
@@ -2726,16 +2715,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>159</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>160</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="28" t="n">
@@ -2752,15 +2741,15 @@
       </c>
       <c r="K26" s="17"/>
       <c r="L26" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
       <c r="O26" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P26" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q26" s="25" t="n">
         <v>43221</v>
@@ -2769,13 +2758,13 @@
         <v>43221</v>
       </c>
       <c r="S26" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T26" s="36" t="n">
         <v>44896</v>
       </c>
       <c r="U26" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V26" s="17"/>
       <c r="W26" s="17"/>
@@ -2786,16 +2775,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>162</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>163</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="28" t="n">
@@ -2812,15 +2801,15 @@
       </c>
       <c r="K27" s="17"/>
       <c r="L27" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
       <c r="O27" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P27" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q27" s="25" t="n">
         <v>43221</v>
@@ -2829,13 +2818,13 @@
         <v>43221</v>
       </c>
       <c r="S27" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T27" s="36" t="n">
         <v>44896</v>
       </c>
       <c r="U27" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V27" s="17"/>
       <c r="W27" s="17"/>
@@ -2846,16 +2835,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C28" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="E28" s="18" t="s">
         <v>165</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>166</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="45" t="n">
@@ -2868,19 +2857,19 @@
         <v>31</v>
       </c>
       <c r="J28" s="46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K28" s="17"/>
       <c r="L28" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
       <c r="O28" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P28" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q28" s="25" t="n">
         <v>43378</v>
@@ -2889,13 +2878,13 @@
         <v>43262</v>
       </c>
       <c r="S28" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T28" s="36" t="n">
         <v>44896</v>
       </c>
       <c r="U28" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V28" s="17"/>
       <c r="W28" s="17"/>
@@ -2906,16 +2895,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="E29" s="18" t="s">
         <v>170</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>171</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="19" t="n">
@@ -2925,22 +2914,22 @@
         <v>30</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J29" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K29" s="17"/>
       <c r="L29" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
       <c r="O29" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P29" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q29" s="25" t="n">
         <v>43378</v>
@@ -2949,13 +2938,13 @@
         <v>43262</v>
       </c>
       <c r="S29" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T29" s="36" t="n">
         <v>44896</v>
       </c>
       <c r="U29" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V29" s="17"/>
       <c r="W29" s="17"/>
@@ -2966,16 +2955,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="E30" s="18" t="s">
         <v>174</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>175</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="19" t="n">
@@ -2985,22 +2974,22 @@
         <v>30</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30" s="46" t="s">
-        <v>176</v>
+        <v>54</v>
+      </c>
+      <c r="J30" s="46" t="n">
+        <v>33938</v>
       </c>
       <c r="K30" s="17"/>
       <c r="L30" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
       <c r="O30" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q30" s="25" t="n">
         <v>43196</v>
@@ -3009,13 +2998,13 @@
         <v>43080</v>
       </c>
       <c r="S30" s="31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="T30" s="36" t="n">
         <v>44896</v>
       </c>
       <c r="U30" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V30" s="17"/>
       <c r="W30" s="17"/>
@@ -3026,16 +3015,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>179</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>181</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="19" t="n">
@@ -3052,15 +3041,15 @@
       </c>
       <c r="K31" s="17"/>
       <c r="L31" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
       <c r="O31" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q31" s="23" t="n">
         <v>43378</v>
@@ -3069,13 +3058,13 @@
         <v>43262</v>
       </c>
       <c r="S31" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="T31" s="36" t="n">
         <v>44896</v>
       </c>
       <c r="U31" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V31" s="17"/>
       <c r="W31" s="17"/>
@@ -3086,41 +3075,41 @@
         <v>30</v>
       </c>
       <c r="B32" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="E32" s="18" t="s">
         <v>185</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>187</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="34" t="n">
         <v>923042</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J32" s="36" t="n">
         <v>33986</v>
       </c>
       <c r="K32" s="17"/>
       <c r="L32" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M32" s="17"/>
       <c r="N32" s="17"/>
       <c r="O32" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q32" s="36" t="n">
         <v>42923</v>
@@ -3129,13 +3118,13 @@
         <v>42616</v>
       </c>
       <c r="S32" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="T32" s="36" t="n">
         <v>43868</v>
       </c>
       <c r="U32" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V32" s="17"/>
       <c r="W32" s="17"/>
@@ -3146,41 +3135,41 @@
         <v>31</v>
       </c>
       <c r="B33" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="E33" s="18" t="s">
         <v>190</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>192</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="34" t="n">
         <v>947793</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J33" s="36" t="n">
         <v>34427</v>
       </c>
       <c r="K33" s="17"/>
       <c r="L33" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
       <c r="O33" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P33" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q33" s="25" t="n">
         <v>43378</v>
@@ -3189,13 +3178,13 @@
         <v>43292</v>
       </c>
       <c r="S33" s="31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="T33" s="36" t="n">
         <v>43743</v>
       </c>
       <c r="U33" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V33" s="17"/>
       <c r="W33" s="17"/>
@@ -3206,23 +3195,23 @@
         <v>32</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C34" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="18" t="s">
         <v>194</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>196</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="28" t="n">
         <v>943810</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I34" s="22" t="s">
         <v>31</v>
@@ -3232,15 +3221,15 @@
       </c>
       <c r="K34" s="17"/>
       <c r="L34" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
       <c r="O34" s="37" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P34" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q34" s="25" t="n">
         <v>43221</v>
@@ -3249,13 +3238,13 @@
         <v>43221</v>
       </c>
       <c r="S34" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="T34" s="36" t="n">
         <v>43586</v>
       </c>
       <c r="U34" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V34" s="17"/>
       <c r="W34" s="17"/>
@@ -3266,16 +3255,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C35" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="38" t="n">
@@ -3292,15 +3281,15 @@
       </c>
       <c r="K35" s="17"/>
       <c r="L35" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
       <c r="O35" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P35" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q35" s="14" t="n">
         <v>43221</v>
@@ -3309,13 +3298,13 @@
         <v>43221</v>
       </c>
       <c r="S35" s="31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="T35" s="36" t="n">
         <v>43586</v>
       </c>
       <c r="U35" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V35" s="17"/>
       <c r="W35" s="17"/>
@@ -3326,16 +3315,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C36" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E36" s="18" t="s">
         <v>202</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>204</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="28" t="n">
@@ -3345,22 +3334,22 @@
         <v>30</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J36" s="25" t="n">
         <v>35593</v>
       </c>
       <c r="K36" s="17"/>
       <c r="L36" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
       <c r="O36" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P36" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q36" s="25" t="n">
         <v>43221</v>
@@ -3369,13 +3358,13 @@
         <v>43221</v>
       </c>
       <c r="S36" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T36" s="36" t="n">
         <v>43586</v>
       </c>
       <c r="U36" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V36" s="17"/>
       <c r="W36" s="17"/>
@@ -3386,41 +3375,41 @@
         <v>35</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F37" s="47"/>
       <c r="G37" s="47" t="n">
         <v>947702</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J37" s="46" t="n">
         <v>35807</v>
       </c>
       <c r="K37" s="17"/>
       <c r="L37" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M37" s="17"/>
       <c r="N37" s="17"/>
       <c r="O37" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P37" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q37" s="25" t="n">
         <v>43378</v>
@@ -3429,13 +3418,13 @@
         <v>43262</v>
       </c>
       <c r="S37" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T37" s="25" t="n">
         <v>43743</v>
       </c>
       <c r="U37" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V37" s="17"/>
       <c r="W37" s="17"/>
@@ -3446,16 +3435,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C38" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="E38" s="47" t="s">
         <v>208</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="E38" s="47" t="s">
-        <v>210</v>
       </c>
       <c r="F38" s="47"/>
       <c r="G38" s="47" t="n">
@@ -3472,15 +3461,15 @@
       </c>
       <c r="K38" s="17"/>
       <c r="L38" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
       <c r="O38" s="37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P38" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q38" s="25" t="n">
         <v>43378</v>
@@ -3489,13 +3478,13 @@
         <v>43292</v>
       </c>
       <c r="S38" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="T38" s="25" t="n">
         <v>43743</v>
       </c>
       <c r="U38" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V38" s="17"/>
       <c r="W38" s="17"/>
@@ -3506,23 +3495,23 @@
         <v>37</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C39" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="E39" s="47" t="s">
         <v>213</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>214</v>
-      </c>
-      <c r="E39" s="47" t="s">
-        <v>215</v>
       </c>
       <c r="F39" s="47"/>
       <c r="G39" s="47" t="n">
         <v>948250</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I39" s="22" t="s">
         <v>31</v>
@@ -3532,15 +3521,15 @@
       </c>
       <c r="K39" s="17"/>
       <c r="L39" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
       <c r="O39" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P39" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q39" s="25" t="n">
         <v>43378</v>
@@ -3549,13 +3538,13 @@
         <v>43292</v>
       </c>
       <c r="S39" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="T39" s="25" t="n">
         <v>43743</v>
       </c>
       <c r="U39" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V39" s="17"/>
       <c r="W39" s="17"/>
@@ -3566,41 +3555,41 @@
         <v>38</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C40" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" s="18" t="s">
         <v>216</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>218</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="19" t="n">
         <v>852916</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J40" s="46" t="n">
         <v>29962</v>
       </c>
       <c r="K40" s="17"/>
       <c r="L40" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
       <c r="O40" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P40" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q40" s="23" t="n">
         <v>38457</v>
@@ -3609,13 +3598,13 @@
         <v>38278</v>
       </c>
       <c r="S40" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T40" s="25" t="n">
         <v>44657</v>
       </c>
       <c r="U40" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V40" s="17"/>
       <c r="W40" s="17"/>
@@ -3626,41 +3615,41 @@
         <v>39</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C41" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41" s="18" t="s">
         <v>221</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>223</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="19" t="n">
         <v>954395</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J41" s="46" t="n">
         <v>34958</v>
       </c>
       <c r="K41" s="17"/>
       <c r="L41" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
       <c r="O41" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P41" s="30" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q41" s="23" t="n">
         <v>43732</v>
@@ -3669,13 +3658,13 @@
         <v>43613</v>
       </c>
       <c r="S41" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="T41" s="25" t="n">
         <v>44098</v>
       </c>
       <c r="U41" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V41" s="17"/>
       <c r="W41" s="17"/>
@@ -3686,16 +3675,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C42" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="E42" s="39" t="s">
         <v>225</v>
-      </c>
-      <c r="D42" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="E42" s="39" t="s">
-        <v>227</v>
       </c>
       <c r="F42" s="39"/>
       <c r="G42" s="33" t="n">
@@ -3705,14 +3694,14 @@
         <v>30</v>
       </c>
       <c r="I42" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J42" s="23" t="n">
         <v>35737</v>
       </c>
       <c r="K42" s="17"/>
       <c r="L42" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
@@ -3720,7 +3709,7 @@
         <v>73210</v>
       </c>
       <c r="P42" s="30" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q42" s="23" t="n">
         <v>43844</v>
@@ -3729,13 +3718,13 @@
         <v>43844</v>
       </c>
       <c r="S42" s="31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="T42" s="23" t="n">
         <v>44940</v>
       </c>
       <c r="U42" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V42" s="17"/>
       <c r="W42" s="17"/>
@@ -3746,16 +3735,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="19" t="n">
@@ -3772,15 +3761,15 @@
       </c>
       <c r="K43" s="17"/>
       <c r="L43" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
       <c r="O43" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="P43" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q43" s="48" t="n">
         <v>43709</v>
@@ -3789,13 +3778,13 @@
         <v>43709</v>
       </c>
       <c r="S43" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="T43" s="46" t="n">
         <v>44805</v>
       </c>
       <c r="U43" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="V43" s="19"/>
       <c r="W43" s="19"/>
@@ -3806,41 +3795,41 @@
         <v>42</v>
       </c>
       <c r="B44" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D44" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="E44" s="18" t="s">
         <v>236</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>238</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="19" t="n">
         <v>870325</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J44" s="46" t="n">
         <v>32356</v>
       </c>
       <c r="K44" s="17"/>
       <c r="L44" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
       <c r="O44" s="30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P44" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q44" s="23" t="n">
         <v>39465</v>
@@ -3849,13 +3838,11 @@
         <v>39636</v>
       </c>
       <c r="S44" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="T44" s="25" t="s">
-        <v>39</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="T44" s="25"/>
       <c r="U44" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V44" s="17"/>
       <c r="W44" s="17"/>
@@ -3866,41 +3853,41 @@
         <v>43</v>
       </c>
       <c r="B45" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="E45" s="39" t="s">
         <v>242</v>
-      </c>
-      <c r="D45" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>244</v>
       </c>
       <c r="F45" s="39"/>
       <c r="G45" s="33" t="n">
         <v>965964</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I45" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J45" s="23" t="n">
         <v>34497</v>
       </c>
       <c r="K45" s="17"/>
       <c r="L45" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
       <c r="O45" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="P45" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q45" s="23" t="n">
         <v>44196</v>
@@ -3909,13 +3896,11 @@
         <v>44196</v>
       </c>
       <c r="S45" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="T45" s="23" t="s">
-        <v>39</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="T45" s="23"/>
       <c r="U45" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V45" s="17"/>
       <c r="W45" s="17"/>
@@ -3926,41 +3911,41 @@
         <v>44</v>
       </c>
       <c r="B46" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="D46" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="E46" s="39" t="s">
         <v>247</v>
-      </c>
-      <c r="D46" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="E46" s="39" t="s">
-        <v>249</v>
       </c>
       <c r="F46" s="39"/>
       <c r="G46" s="33" t="n">
         <v>965628</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I46" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J46" s="23" t="n">
         <v>34160</v>
       </c>
       <c r="K46" s="17"/>
       <c r="L46" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
       <c r="O46" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P46" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q46" s="23" t="n">
         <v>44196</v>
@@ -3969,13 +3954,11 @@
         <v>44196</v>
       </c>
       <c r="S46" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="T46" s="23" t="s">
-        <v>39</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="T46" s="23"/>
       <c r="U46" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V46" s="17"/>
       <c r="W46" s="17"/>
@@ -3986,23 +3969,23 @@
         <v>45</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C47" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E47" s="18" t="s">
         <v>251</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>253</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="19" t="n">
         <v>973165</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I47" s="22" t="s">
         <v>31</v>
@@ -4012,7 +3995,7 @@
       </c>
       <c r="K47" s="22"/>
       <c r="L47" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -4020,7 +4003,7 @@
         <v>70230</v>
       </c>
       <c r="P47" s="22" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q47" s="46" t="n">
         <v>44561</v>
@@ -4029,13 +4012,11 @@
         <v>44561</v>
       </c>
       <c r="S47" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="T47" s="22" t="s">
-        <v>39</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="T47" s="22"/>
       <c r="U47" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="V47" s="22"/>
       <c r="W47" s="22"/>
@@ -4046,33 +4027,33 @@
         <v>46</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C48" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="E48" s="18" t="s">
         <v>255</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>257</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="19" t="n">
         <v>976932</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J48" s="46" t="n">
         <v>36072</v>
       </c>
       <c r="K48" s="18"/>
       <c r="L48" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M48" s="18"/>
       <c r="N48" s="18"/>
@@ -4080,7 +4061,7 @@
         <v>73230</v>
       </c>
       <c r="P48" s="22" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q48" s="46" t="n">
         <v>44775</v>
@@ -4089,13 +4070,11 @@
         <v>44775</v>
       </c>
       <c r="S48" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="T48" s="22" t="s">
-        <v>39</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="T48" s="22"/>
       <c r="U48" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="V48" s="22"/>
       <c r="W48" s="22"/>
@@ -4106,23 +4085,23 @@
         <v>47</v>
       </c>
       <c r="B49" s="47" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C49" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="E49" s="18" t="s">
         <v>259</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>261</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="19" t="n">
         <v>981456</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I49" s="22" t="s">
         <v>31</v>
@@ -4132,15 +4111,15 @@
       </c>
       <c r="K49" s="17"/>
       <c r="L49" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
       <c r="O49" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="P49" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q49" s="46" t="n">
         <v>44834</v>
@@ -4149,13 +4128,11 @@
         <v>44834</v>
       </c>
       <c r="S49" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="T49" s="22" t="s">
-        <v>39</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="T49" s="22"/>
       <c r="U49" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="V49" s="18"/>
       <c r="W49" s="18"/>
@@ -4166,41 +4143,41 @@
         <v>48</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C50" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="E50" s="18" t="s">
         <v>263</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>265</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="19" t="n">
         <v>981533</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J50" s="46" t="n">
         <v>35908</v>
       </c>
       <c r="K50" s="17"/>
       <c r="L50" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
       <c r="O50" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="P50" s="32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q50" s="46" t="n">
         <v>44834</v>
@@ -4209,13 +4186,11 @@
         <v>44834</v>
       </c>
       <c r="S50" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="T50" s="22" t="s">
-        <v>39</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="T50" s="22"/>
       <c r="U50" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="V50" s="18"/>
       <c r="W50" s="18"/>
@@ -4226,16 +4201,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="47" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C51" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="E51" s="18" t="s">
         <v>267</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>269</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="50" t="n">
@@ -4245,14 +4220,14 @@
         <v>30</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J51" s="46" t="n">
         <v>35660</v>
       </c>
       <c r="K51" s="22"/>
       <c r="L51" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -4265,13 +4240,11 @@
         <v>44883</v>
       </c>
       <c r="S51" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="T51" s="22" t="s">
-        <v>39</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="T51" s="22"/>
       <c r="U51" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V51" s="22"/>
       <c r="W51" s="22"/>
@@ -4282,16 +4255,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C52" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E52" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>273</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="50" t="n">
@@ -4301,14 +4274,14 @@
         <v>30</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J52" s="46" t="n">
         <v>37002</v>
       </c>
       <c r="K52" s="22"/>
       <c r="L52" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -4321,13 +4294,11 @@
         <v>44883</v>
       </c>
       <c r="S52" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="T52" s="22" t="s">
-        <v>39</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="T52" s="22"/>
       <c r="U52" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="V52" s="22"/>
       <c r="W52" s="22"/>
